--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
